--- a/src/main/resources/Addschoolrelationshipmanager.xlsx
+++ b/src/main/resources/Addschoolrelationshipmanager.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - MS03</t>
   </si>
   <si>
-    <t>Alia</t>
-  </si>
-  <si>
-    <t>Bhatt</t>
-  </si>
-  <si>
-    <t>Usercode - AB1</t>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Kumble</t>
+  </si>
+  <si>
+    <t>Usercode - AK132</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addschoolrelationshipmanager.xlsx
+++ b/src/main/resources/Addschoolrelationshipmanager.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - MS03</t>
   </si>
   <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Kumble</t>
-  </si>
-  <si>
-    <t>Usercode - AK132</t>
+    <t>Abu</t>
+  </si>
+  <si>
+    <t>Backar</t>
+  </si>
+  <si>
+    <t>Usercode - AB133</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addschoolrelationshipmanager.xlsx
+++ b/src/main/resources/Addschoolrelationshipmanager.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - MS03</t>
   </si>
   <si>
-    <t>Abu</t>
-  </si>
-  <si>
-    <t>Backar</t>
-  </si>
-  <si>
-    <t>Usercode - AB133</t>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Ponting</t>
+  </si>
+  <si>
+    <t>Usercode - RP136</t>
   </si>
 </sst>
 </file>
